--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_project\3D Print\Voron-2-2.4r2 - me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Project\my_voron2.4_3dPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A45A333-E1BC-4150-9322-E7E704ACC237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CC6F4-9E05-450B-A029-95CCC6EC821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
   <si>
     <t>框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,46 @@
   </si>
   <si>
     <t>成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L型 20型 外连接件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.247.76d074847sbr3H&amp;id=674318551724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔距90 铝合金拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z0d.6639537/tb.1997196601.14.76d074847sbr3H&amp;id=624020331987&amp;skuId=4412745333997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚克力加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约80一块，根据实际情况选择加工厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑残切割，正好挡在孔洞上，换一家吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约估算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +664,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,17 +712,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -958,24 +1005,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="7.875" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="125.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -995,8 +1042,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1022,9 +1069,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -1040,13 +1087,13 @@
         <f t="shared" ref="G3:G7" si="0">F3*E3+D3</f>
         <v>7.21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -1060,11 +1107,11 @@
         <f t="shared" si="0"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -1078,11 +1125,11 @@
         <f t="shared" si="0"/>
         <v>19.88</v>
       </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -1096,11 +1143,11 @@
         <f t="shared" si="0"/>
         <v>149.60000000000002</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -1114,10 +1161,10 @@
         <f t="shared" si="0"/>
         <v>83.88</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1141,8 +1188,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1166,8 +1213,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1191,8 +1238,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1216,8 +1263,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1231,8 +1278,8 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B14" t="s">
@@ -1258,8 +1305,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
@@ -1283,8 +1330,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1307,9 +1354,12 @@
       <c r="H16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1333,8 +1383,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -1358,8 +1408,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1383,9 +1433,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
@@ -1404,13 +1454,13 @@
         <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>47</v>
       </c>
@@ -1424,10 +1474,10 @@
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,12 +1491,12 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
@@ -1472,8 +1522,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -1497,8 +1547,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>53</v>
       </c>
@@ -1522,8 +1572,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,8 +1587,8 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
@@ -1564,8 +1614,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1589,8 +1639,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -1617,8 +1667,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>1</v>
       </c>
@@ -1642,8 +1692,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1670,14 +1720,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
       <c r="B37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,8 +1741,8 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -1713,8 +1763,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -1731,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <f>F40*E40+D40</f>
+        <f t="shared" ref="G40:G47" si="4">F40*E40+D40</f>
         <v>20</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1741,8 +1791,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
         <v>82</v>
       </c>
@@ -1756,15 +1806,15 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <f>F41*E41+D41</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
       <c r="B42" t="s">
         <v>86</v>
       </c>
@@ -1781,15 +1831,15 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <f>F42*E42+D42</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
       <c r="B43" t="s">
         <v>97</v>
       </c>
@@ -1800,15 +1850,15 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <f>F43*E43+D43</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
       <c r="B44" t="s">
         <v>89</v>
       </c>
@@ -1825,15 +1875,15 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <f>F44*E44+D44</f>
+        <f t="shared" si="4"/>
         <v>26.5</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>92</v>
       </c>
@@ -1844,15 +1894,15 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <f>F45*E45+D45</f>
+        <f t="shared" si="4"/>
         <v>3.46</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
       <c r="B46" t="s">
         <v>94</v>
       </c>
@@ -1866,15 +1916,15 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <f>F46*E46+D46</f>
+        <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
       <c r="B47" t="s">
         <v>99</v>
       </c>
@@ -1891,14 +1941,14 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <f>F47*E47+D47</f>
+        <f t="shared" si="4"/>
         <v>49.8</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,7 +1962,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>104</v>
       </c>
@@ -1933,7 +1983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -1954,7 +2004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -1978,7 +2028,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -1999,7 +2049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2063,8 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C54" t="s">
@@ -2033,12 +2083,12 @@
         <f>F54*E54+D54</f>
         <v>12.9</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
       <c r="C55" t="s">
         <v>117</v>
       </c>
@@ -2049,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G63" si="4">F55*E55+D55</f>
+        <f t="shared" ref="G55:G63" si="5">F55*E55+D55</f>
         <v>9.9</v>
       </c>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
       <c r="C56" t="s">
         <v>118</v>
       </c>
@@ -2066,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6</v>
       </c>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
       <c r="C57" t="s">
         <v>119</v>
       </c>
@@ -2083,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6</v>
       </c>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
       <c r="C58" t="s">
         <v>120</v>
       </c>
@@ -2100,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="11"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
       <c r="C59" t="s">
         <v>121</v>
       </c>
@@ -2117,12 +2167,12 @@
         <v>8</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>122</v>
       </c>
@@ -2136,14 +2186,14 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>125</v>
       </c>
@@ -2160,14 +2210,14 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.4</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>128</v>
       </c>
@@ -2184,14 +2234,14 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>131</v>
       </c>
@@ -2208,14 +2258,14 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,17 +2279,96 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>1.2</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <f>F67*E67+D67</f>
+        <v>25.2</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>2.8</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <f>F68*E68+D68</f>
+        <v>5.6</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69">
+        <v>80</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <f>F69*E69</f>
+        <v>560</v>
+      </c>
+      <c r="I69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G65">
-        <f>G64+G53+G48+G38+G27+G22+G12</f>
-        <v>3887.82</v>
-      </c>
+      <c r="C70" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13">
+        <f>G64+G53+G48+G38+G27+G22+G12+G69+G68+G67</f>
+        <v>4478.62</v>
+      </c>
+      <c r="H70" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A2:A12"/>
     <mergeCell ref="A32:A47"/>
     <mergeCell ref="H54:H59"/>
     <mergeCell ref="B54:B59"/>
@@ -2247,9 +2376,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2292,8 +2418,10 @@
     <hyperlink ref="H61" r:id="rId37" location="detail" xr:uid="{06ED0924-2202-43C2-985D-3F03E2010CB2}"/>
     <hyperlink ref="H62" r:id="rId38" location="detail" xr:uid="{21B132C2-FEF1-451A-8AE3-1AC3FEA5DC99}"/>
     <hyperlink ref="H63" r:id="rId39" xr:uid="{9582A6B3-3BCC-4D64-815B-A4161BC5B027}"/>
+    <hyperlink ref="H67" r:id="rId40" xr:uid="{77676677-D963-4CAD-8649-68EE4249A539}"/>
+    <hyperlink ref="H68" r:id="rId41" xr:uid="{7700DA8E-791F-4836-AFCE-66D4047A3913}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Project\my_voron2.4_3dPrinter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_project\3D Print\Voron-2-2.4r2 - me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CC6F4-9E05-450B-A029-95CCC6EC821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FCC71-9CB6-41F2-BFC3-7F30FF1C993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,10 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24组1000只+工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.16.e72047eeawUKxo&amp;id=589407951181&amp;ns=1&amp;abbucket=4&amp;skuId=4648389848416</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +608,10 @@
   </si>
   <si>
     <t>大约估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24组1000只</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,6 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,7 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1007,22 +1007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="125.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="125.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1042,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1069,9 +1069,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -1087,13 +1087,13 @@
         <f t="shared" ref="G3:G7" si="0">F3*E3+D3</f>
         <v>7.21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -1107,11 +1107,11 @@
         <f t="shared" si="0"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -1125,11 +1125,11 @@
         <f t="shared" si="0"/>
         <v>19.88</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -1143,11 +1143,11 @@
         <f t="shared" si="0"/>
         <v>149.60000000000002</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -1161,10 +1161,10 @@
         <f t="shared" si="0"/>
         <v>83.88</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1188,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1213,8 +1213,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1238,8 +1238,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1263,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1278,8 +1278,8 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B14" t="s">
@@ -1305,8 +1305,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
@@ -1330,8 +1330,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1355,11 +1355,11 @@
         <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1383,8 +1383,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -1408,8 +1408,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1433,9 +1433,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
@@ -1454,13 +1454,13 @@
         <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" t="s">
         <v>47</v>
       </c>
@@ -1474,10 +1474,10 @@
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
@@ -1522,8 +1522,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -1547,8 +1547,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>53</v>
       </c>
@@ -1572,8 +1572,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1587,8 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
@@ -1614,8 +1614,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1639,8 +1639,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -1667,8 +1667,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>1</v>
       </c>
@@ -1692,8 +1692,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1720,14 +1720,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
       <c r="B37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1741,8 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -1763,8 +1763,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -1791,8 +1791,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>82</v>
       </c>
@@ -1813,8 +1813,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>86</v>
       </c>
@@ -1838,8 +1838,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
         <v>97</v>
       </c>
@@ -1857,8 +1857,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>89</v>
       </c>
@@ -1882,8 +1882,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>92</v>
       </c>
@@ -1901,8 +1901,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
       <c r="B46" t="s">
         <v>94</v>
       </c>
@@ -1923,8 +1923,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>99</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>104</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2063,8 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C54" t="s">
@@ -2083,12 +2083,12 @@
         <f>F54*E54+D54</f>
         <v>12.9</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="11"/>
       <c r="C55" t="s">
         <v>117</v>
       </c>
@@ -2102,10 +2102,10 @@
         <f t="shared" ref="G55:G63" si="5">F55*E55+D55</f>
         <v>9.9</v>
       </c>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="11"/>
       <c r="C56" t="s">
         <v>118</v>
       </c>
@@ -2119,10 +2119,10 @@
         <f t="shared" si="5"/>
         <v>6.6</v>
       </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
       <c r="C57" t="s">
         <v>119</v>
       </c>
@@ -2136,10 +2136,10 @@
         <f t="shared" si="5"/>
         <v>6.6</v>
       </c>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
       <c r="C58" t="s">
         <v>120</v>
       </c>
@@ -2153,10 +2153,10 @@
         <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="11"/>
       <c r="C59" t="s">
         <v>121</v>
       </c>
@@ -2170,35 +2170,35 @@
         <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E60">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -2214,15 +2214,15 @@
         <v>23.4</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>129</v>
       </c>
       <c r="D62">
         <v>3.5</v>
@@ -2238,15 +2238,15 @@
         <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" t="s">
-        <v>132</v>
       </c>
       <c r="D63">
         <v>3.5</v>
@@ -2262,10 +2262,10 @@
         <v>64.5</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,16 +2275,16 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3">
         <f>SUM(G54:G63)</f>
-        <v>231.70000000000002</v>
+        <v>221.7</v>
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
         <v>135</v>
-      </c>
-      <c r="C67" t="s">
-        <v>136</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -2300,15 +2300,15 @@
         <v>25.2</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2324,15 +2324,15 @@
         <v>5.6</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -2345,24 +2345,24 @@
         <v>560</v>
       </c>
       <c r="I69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9">
         <f>G64+G53+G48+G38+G27+G22+G12+G69+G68+G67</f>
-        <v>4478.62</v>
-      </c>
-      <c r="H70" s="13"/>
+        <v>4468.62</v>
+      </c>
+      <c r="H70" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_project\3D Print\Voron-2-2.4r2 - me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Project\my_voron2.4_3dPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FCC71-9CB6-41F2-BFC3-7F30FF1C993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B243FB3-05EA-4E1B-94A5-733B6683B9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="148">
   <si>
     <t>框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,18 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JST连接器套件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320只</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.114.42831ce1T7vg7t&amp;id=650412860513&amp;ns=1&amp;abbucket=4#detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电源对接端子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +600,54 @@
   </si>
   <si>
     <t>24组1000只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH2.54连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=n34p3tnncd07&amp;id=13300685584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P + 3P + 4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白别折腾这台机器，折腾你会后悔的，烧钱，费时间，有烧件风险，短期效果不好，先买成品练手，或别碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑残搭配，送的10mm z轴不能用，可能z轴的限位光轴太长了也不能用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">别买 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>凌创三维</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的东西，能用但巨坑，它们好像没做过打印机，件都有问题，未来肯定要换掉他家的东西</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +697,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1007,22 +1052,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="7.875" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="125.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="125.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="106.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1087,11 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1117,11 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
         <v>25</v>
@@ -1091,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" t="s">
@@ -1109,7 +1161,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" t="s">
@@ -1127,7 +1179,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" t="s">
@@ -1145,7 +1197,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" t="s">
@@ -1163,7 +1215,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>16</v>
@@ -1188,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>7</v>
@@ -1213,7 +1265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>13</v>
@@ -1238,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>10</v>
@@ -1263,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -1278,7 +1330,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>48</v>
       </c>
@@ -1305,7 +1357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
         <v>34</v>
@@ -1330,7 +1382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>35</v>
@@ -1355,10 +1407,10 @@
         <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>33</v>
@@ -1382,8 +1434,11 @@
       <c r="H17" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>65</v>
@@ -1408,7 +1463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>39</v>
@@ -1433,7 +1488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="13" t="s">
         <v>42</v>
@@ -1458,7 +1513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" t="s">
@@ -1476,7 +1531,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1491,11 +1546,11 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -1522,7 +1577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>51</v>
@@ -1547,7 +1602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>53</v>
@@ -1572,7 +1627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>3</v>
@@ -1587,7 +1642,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>103</v>
       </c>
@@ -1614,7 +1669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>56</v>
@@ -1639,7 +1694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>54</v>
@@ -1667,7 +1722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>1</v>
@@ -1692,7 +1747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>28</v>
@@ -1720,13 +1775,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>3</v>
@@ -1741,7 +1796,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -1763,7 +1818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>78</v>
@@ -1791,7 +1846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>82</v>
@@ -1813,7 +1868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>86</v>
@@ -1838,7 +1893,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" t="s">
         <v>97</v>
@@ -1857,7 +1912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>89</v>
@@ -1882,7 +1937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>92</v>
@@ -1901,7 +1956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" t="s">
         <v>94</v>
@@ -1923,7 +1978,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>99</v>
@@ -1948,7 +2003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +2017,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>104</v>
       </c>
@@ -1983,7 +2038,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -2004,7 +2059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -2028,7 +2083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -2049,7 +2104,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2118,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>114</v>
       </c>
@@ -2087,7 +2142,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="C55" t="s">
         <v>117</v>
@@ -2104,7 +2159,7 @@
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" t="s">
         <v>118</v>
@@ -2121,7 +2176,7 @@
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="C57" t="s">
         <v>119</v>
@@ -2138,7 +2193,7 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" t="s">
         <v>120</v>
@@ -2155,7 +2210,7 @@
       </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
       <c r="C59" t="s">
         <v>121</v>
@@ -2172,12 +2227,12 @@
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E60">
         <v>35</v>
@@ -2193,7 +2248,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>124</v>
       </c>
@@ -2217,36 +2272,37 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D62">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>6.5</v>
+        <f>3.15+5.08+3.39</f>
+        <v>11.620000000000001</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11.620000000000001</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D63">
         <v>3.5</v>
@@ -2262,10 +2318,10 @@
         <v>64.5</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,19 +2331,19 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3">
         <f>SUM(G54:G63)</f>
-        <v>221.7</v>
+        <v>223.32</v>
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>1.2</v>
@@ -2297,18 +2353,18 @@
       </c>
       <c r="G67">
         <f>F67*E67+D67</f>
-        <v>25.2</v>
+        <v>46.2</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2324,15 +2380,15 @@
         <v>5.6</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
         <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>143</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -2345,22 +2401,22 @@
         <v>560</v>
       </c>
       <c r="I69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9">
         <f>G64+G53+G48+G38+G27+G22+G12+G69+G68+G67</f>
-        <v>4468.62</v>
+        <v>4491.2400000000007</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -2416,7 +2472,7 @@
     <hyperlink ref="H54" r:id="rId35" location="detail" xr:uid="{916489ED-BB93-4C9A-A30E-34254FC11790}"/>
     <hyperlink ref="H60" r:id="rId36" xr:uid="{23D1EBF7-AC3C-4FCC-A11C-FDC2D36A8C23}"/>
     <hyperlink ref="H61" r:id="rId37" location="detail" xr:uid="{06ED0924-2202-43C2-985D-3F03E2010CB2}"/>
-    <hyperlink ref="H62" r:id="rId38" location="detail" xr:uid="{21B132C2-FEF1-451A-8AE3-1AC3FEA5DC99}"/>
+    <hyperlink ref="H62" r:id="rId38" xr:uid="{21B132C2-FEF1-451A-8AE3-1AC3FEA5DC99}"/>
     <hyperlink ref="H63" r:id="rId39" xr:uid="{9582A6B3-3BCC-4D64-815B-A4161BC5B027}"/>
     <hyperlink ref="H67" r:id="rId40" xr:uid="{77676677-D963-4CAD-8649-68EE4249A539}"/>
     <hyperlink ref="H68" r:id="rId41" xr:uid="{7700DA8E-791F-4836-AFCE-66D4047A3913}"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Project\my_voron2.4_3dPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B243FB3-05EA-4E1B-94A5-733B6683B9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D8EA1-4123-4151-8C8E-F9E82697643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,39 +615,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小白别折腾这台机器，折腾你会后悔的，烧钱，费时间，有烧件风险，短期效果不好，先买成品练手，或别碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脑残搭配，送的10mm z轴不能用，可能z轴的限位光轴太长了也不能用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">别买 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>凌创三维</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的东西，能用但巨坑，它们好像没做过打印机，件都有问题，未来肯定要换掉他家的东西</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,15 +665,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1052,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1087,9 +1046,6 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1116,9 +1072,6 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1435,7 +1388,7 @@
         <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
